--- a/test.xlsx
+++ b/test.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\RIG\!!RIG Even\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\early-failure-prevention\early-failure-prevention-final-exam-predictor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{626E1232-88EB-433D-A76E-22D9DB2867C0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E2C2261-71E2-4B8D-A313-2CD28CD42245}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{38DB7FDC-1BDA-4146-9691-5F16ABBC384B}"/>
+    <workbookView xWindow="8700" yWindow="2424" windowWidth="17280" windowHeight="9420" xr2:uid="{38DB7FDC-1BDA-4146-9691-5F16ABBC384B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="7">
   <si>
     <t>nim</t>
   </si>
@@ -402,19 +402,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB25B713-4D6E-43FA-8AA4-7FD098963EFF}">
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -434,7 +434,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1111111111</v>
       </c>
@@ -454,7 +454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1111111112</v>
       </c>
@@ -474,7 +474,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1111111113</v>
       </c>
@@ -494,7 +494,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1111111114</v>
       </c>
@@ -502,7 +502,7 @@
         <v>6</v>
       </c>
       <c r="C5">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="D5">
         <v>90</v>
@@ -514,7 +514,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>1111111115</v>
       </c>
@@ -534,7 +534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>1111111116</v>
       </c>
@@ -554,7 +554,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>1111111117</v>
       </c>
@@ -574,7 +574,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>1111111118</v>
       </c>
@@ -582,10 +582,10 @@
         <v>6</v>
       </c>
       <c r="C9">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D9">
-        <v>100</v>
+        <v>35</v>
       </c>
       <c r="E9">
         <v>15</v>
@@ -594,7 +594,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>1111111119</v>
       </c>
@@ -602,256 +602,16 @@
         <v>6</v>
       </c>
       <c r="C10">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D10">
-        <v>100</v>
+        <v>45</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>1111111120</v>
-      </c>
-      <c r="B11" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11">
-        <v>0</v>
-      </c>
-      <c r="D11">
-        <v>100</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
         <v>33</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>1111111121</v>
-      </c>
-      <c r="B12" t="s">
-        <v>6</v>
-      </c>
-      <c r="C12">
-        <v>100</v>
-      </c>
-      <c r="D12">
-        <v>50</v>
-      </c>
-      <c r="E12">
-        <v>75</v>
-      </c>
-      <c r="F12">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>1111111122</v>
-      </c>
-      <c r="B13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13">
-        <v>100</v>
-      </c>
-      <c r="D13">
-        <v>62.5</v>
-      </c>
-      <c r="E13">
-        <v>75</v>
-      </c>
-      <c r="F13">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>1111111123</v>
-      </c>
-      <c r="B14" t="s">
-        <v>6</v>
-      </c>
-      <c r="C14">
-        <v>100</v>
-      </c>
-      <c r="D14">
-        <v>0</v>
-      </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-      <c r="F14">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>1111111124</v>
-      </c>
-      <c r="B15" t="s">
-        <v>6</v>
-      </c>
-      <c r="C15">
-        <v>100</v>
-      </c>
-      <c r="D15">
-        <v>0</v>
-      </c>
-      <c r="E15">
-        <v>50</v>
-      </c>
-      <c r="F15">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>1111111125</v>
-      </c>
-      <c r="B16" t="s">
-        <v>6</v>
-      </c>
-      <c r="C16">
-        <v>75</v>
-      </c>
-      <c r="D16">
-        <v>75</v>
-      </c>
-      <c r="E16">
-        <v>50</v>
-      </c>
-      <c r="F16">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>1111111126</v>
-      </c>
-      <c r="B17" t="s">
-        <v>6</v>
-      </c>
-      <c r="C17">
-        <v>100</v>
-      </c>
-      <c r="D17">
-        <v>66.67</v>
-      </c>
-      <c r="E17">
-        <v>66.67</v>
-      </c>
-      <c r="F17">
-        <v>66.67</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>1111111127</v>
-      </c>
-      <c r="B18" t="s">
-        <v>6</v>
-      </c>
-      <c r="C18">
-        <v>50</v>
-      </c>
-      <c r="D18">
-        <v>100</v>
-      </c>
-      <c r="E18">
-        <v>75</v>
-      </c>
-      <c r="F18">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>1111111128</v>
-      </c>
-      <c r="B19" t="s">
-        <v>6</v>
-      </c>
-      <c r="C19">
-        <v>2.5</v>
-      </c>
-      <c r="D19">
-        <v>2.5</v>
-      </c>
-      <c r="E19">
-        <v>50</v>
-      </c>
-      <c r="F19">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>1111111129</v>
-      </c>
-      <c r="B20" t="s">
-        <v>6</v>
-      </c>
-      <c r="C20">
-        <v>50</v>
-      </c>
-      <c r="D20">
-        <v>25</v>
-      </c>
-      <c r="E20">
-        <v>40</v>
-      </c>
-      <c r="F20">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>1111111130</v>
-      </c>
-      <c r="B21" t="s">
-        <v>6</v>
-      </c>
-      <c r="C21">
-        <v>50</v>
-      </c>
-      <c r="D21">
-        <v>50</v>
-      </c>
-      <c r="E21">
-        <v>50</v>
-      </c>
-      <c r="F21">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>1111111131</v>
-      </c>
-      <c r="B22" t="s">
-        <v>6</v>
-      </c>
-      <c r="C22">
-        <v>100</v>
-      </c>
-      <c r="D22">
-        <v>100</v>
-      </c>
-      <c r="E22">
-        <v>100</v>
-      </c>
-      <c r="F22">
-        <v>100</v>
       </c>
     </row>
   </sheetData>
